--- a/COUNTBIT 560.xlsx
+++ b/COUNTBIT 560.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kan\Documents\GitHub\SMILE_to_Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B391489E-FF10-4537-986B-E16D5C107469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781FE28-0F5E-4863-AFCC-F8E89F98A14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST2" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TEST2!$A$1:$D$561</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -45,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1077">
   <si>
     <t>SMILES</t>
   </si>
@@ -3276,33 +3289,13 @@
   </si>
   <si>
     <t>Count top Bit</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD0021B"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=INDEX(B2:G2,MODE(MATCH(B2:G2,B2:G2,0)))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3454,12 +3447,6 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFD0021B"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3811,7 +3798,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4166,11 +4153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4209,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>LEN(B2)</f>
+        <f t="shared" ref="E2:E65" si="0">LEN(B2)</f>
         <v>1</v>
       </c>
       <c r="H2">
@@ -4233,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>LEN(B3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H3">
@@ -4258,7 +4245,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>LEN(B4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H4">
@@ -4283,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>LEN(B5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H5">
@@ -4308,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>LEN(B6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4326,7 +4313,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <f>LEN(B7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4344,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f>LEN(B8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4362,12 +4349,10 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>LEN(B9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>1077</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -4383,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <f>LEN(B10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -4401,7 +4386,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <f>LEN(B11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4419,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <f>LEN(B12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -4437,7 +4422,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <f>LEN(B13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -4455,7 +4440,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f>LEN(B14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -4473,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <f>LEN(B15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4491,7 +4476,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <f>LEN(B16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -4509,7 +4494,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <f>LEN(B17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -4527,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <f>LEN(B18)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -4545,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <f>LEN(B19)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4563,7 +4548,7 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <f>LEN(B20)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4581,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <f>LEN(B21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4599,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <f>LEN(B22)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4617,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <f>LEN(B23)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4635,7 +4620,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <f>LEN(B24)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4653,7 +4638,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <f>LEN(B25)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4671,7 +4656,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <f>LEN(B26)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4689,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <f>LEN(B27)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4707,7 +4692,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <f>LEN(B28)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4725,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <f>LEN(B29)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -4743,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <f>LEN(B30)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -4761,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <f>LEN(B31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4779,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <f>LEN(B32)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4797,7 +4782,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <f>LEN(B33)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4815,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <f>LEN(B34)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4833,7 +4818,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <f>LEN(B35)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4851,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <f>LEN(B36)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4869,7 +4854,7 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <f>LEN(B37)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4887,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <f>LEN(B38)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4905,7 +4890,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <f>LEN(B39)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4923,7 +4908,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <f>LEN(B40)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4941,7 +4926,7 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <f>LEN(B41)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4959,7 +4944,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <f>LEN(B42)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4977,7 +4962,7 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <f>LEN(B43)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4995,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <f>LEN(B44)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -5013,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <f>LEN(B45)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -5031,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <f>LEN(B46)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -5049,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <f>LEN(B47)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -5067,7 +5052,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <f>LEN(B48)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -5085,7 +5070,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <f>LEN(B49)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -5103,7 +5088,7 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <f>LEN(B50)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -5121,7 +5106,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <f>LEN(B51)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -5139,7 +5124,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f>LEN(B52)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -5157,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <f>LEN(B53)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -5175,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="E54">
-        <f>LEN(B54)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -5193,7 +5178,7 @@
         <v>6</v>
       </c>
       <c r="E55">
-        <f>LEN(B55)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5211,7 +5196,7 @@
         <v>6</v>
       </c>
       <c r="E56">
-        <f>LEN(B56)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5229,7 +5214,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <f>LEN(B57)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5247,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="E58">
-        <f>LEN(B58)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -5265,7 +5250,7 @@
         <v>6</v>
       </c>
       <c r="E59">
-        <f>LEN(B59)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -5283,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="E60">
-        <f>LEN(B60)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -5301,7 +5286,7 @@
         <v>6</v>
       </c>
       <c r="E61">
-        <f>LEN(B61)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5319,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="E62">
-        <f>LEN(B62)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5337,7 +5322,7 @@
         <v>6</v>
       </c>
       <c r="E63">
-        <f>LEN(B63)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5355,7 +5340,7 @@
         <v>6</v>
       </c>
       <c r="E64">
-        <f>LEN(B64)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5373,7 +5358,7 @@
         <v>6</v>
       </c>
       <c r="E65">
-        <f>LEN(B65)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5391,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="E66">
-        <f>LEN(B66)</f>
+        <f t="shared" ref="E66:E129" si="1">LEN(B66)</f>
         <v>8</v>
       </c>
     </row>
@@ -5409,7 +5394,7 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f>LEN(B67)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5427,7 +5412,7 @@
         <v>6</v>
       </c>
       <c r="E68">
-        <f>LEN(B68)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5445,7 +5430,7 @@
         <v>6</v>
       </c>
       <c r="E69">
-        <f>LEN(B69)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5463,7 +5448,7 @@
         <v>6</v>
       </c>
       <c r="E70">
-        <f>LEN(B70)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5481,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="E71">
-        <f>LEN(B71)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5499,7 +5484,7 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <f>LEN(B72)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5517,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <f>LEN(B73)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5535,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <f>LEN(B74)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5553,7 +5538,7 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <f>LEN(B75)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5571,7 +5556,7 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <f>LEN(B76)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5589,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <f>LEN(B77)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5607,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <f>LEN(B78)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5625,7 +5610,7 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <f>LEN(B79)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5643,7 +5628,7 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <f>LEN(B80)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5661,7 +5646,7 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <f>LEN(B81)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -5679,7 +5664,7 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <f>LEN(B82)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -5697,7 +5682,7 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <f>LEN(B83)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -5715,7 +5700,7 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <f>LEN(B84)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -5733,7 +5718,7 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <f>LEN(B85)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -5751,7 +5736,7 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <f>LEN(B86)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -5769,7 +5754,7 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <f>LEN(B87)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -5787,7 +5772,7 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <f>LEN(B88)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -5805,7 +5790,7 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <f>LEN(B89)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -5823,7 +5808,7 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <f>LEN(B90)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -5841,7 +5826,7 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <f>LEN(B91)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -5859,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="E92">
-        <f>LEN(B92)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5877,7 +5862,7 @@
         <v>7</v>
       </c>
       <c r="E93">
-        <f>LEN(B93)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -5895,7 +5880,7 @@
         <v>7</v>
       </c>
       <c r="E94">
-        <f>LEN(B94)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -5913,7 +5898,7 @@
         <v>7</v>
       </c>
       <c r="E95">
-        <f>LEN(B95)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -5931,7 +5916,7 @@
         <v>7</v>
       </c>
       <c r="E96">
-        <f>LEN(B96)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5949,7 +5934,7 @@
         <v>7</v>
       </c>
       <c r="E97">
-        <f>LEN(B97)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5967,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="E98">
-        <f>LEN(B98)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5985,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="E99">
-        <f>LEN(B99)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6003,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="E100">
-        <f>LEN(B100)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6021,7 +6006,7 @@
         <v>7</v>
       </c>
       <c r="E101">
-        <f>LEN(B101)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6039,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E102">
-        <f>LEN(B102)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6057,7 +6042,7 @@
         <v>7</v>
       </c>
       <c r="E103">
-        <f>LEN(B103)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6075,7 +6060,7 @@
         <v>7</v>
       </c>
       <c r="E104">
-        <f>LEN(B104)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6093,7 +6078,7 @@
         <v>7</v>
       </c>
       <c r="E105">
-        <f>LEN(B105)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6111,7 +6096,7 @@
         <v>7</v>
       </c>
       <c r="E106">
-        <f>LEN(B106)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6129,7 +6114,7 @@
         <v>7</v>
       </c>
       <c r="E107">
-        <f>LEN(B107)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6147,7 +6132,7 @@
         <v>7</v>
       </c>
       <c r="E108">
-        <f>LEN(B108)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6165,7 +6150,7 @@
         <v>7</v>
       </c>
       <c r="E109">
-        <f>LEN(B109)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6183,7 +6168,7 @@
         <v>7</v>
       </c>
       <c r="E110">
-        <f>LEN(B110)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6201,7 +6186,7 @@
         <v>7</v>
       </c>
       <c r="E111">
-        <f>LEN(B111)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6219,7 +6204,7 @@
         <v>7</v>
       </c>
       <c r="E112">
-        <f>LEN(B112)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6237,7 +6222,7 @@
         <v>7</v>
       </c>
       <c r="E113">
-        <f>LEN(B113)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -6255,7 +6240,7 @@
         <v>7</v>
       </c>
       <c r="E114">
-        <f>LEN(B114)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -6273,7 +6258,7 @@
         <v>7</v>
       </c>
       <c r="E115">
-        <f>LEN(B115)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -6291,7 +6276,7 @@
         <v>7</v>
       </c>
       <c r="E116">
-        <f>LEN(B116)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6309,7 +6294,7 @@
         <v>7</v>
       </c>
       <c r="E117">
-        <f>LEN(B117)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6327,7 +6312,7 @@
         <v>7</v>
       </c>
       <c r="E118">
-        <f>LEN(B118)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6345,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E119">
-        <f>LEN(B119)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6363,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="E120">
-        <f>LEN(B120)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6381,7 +6366,7 @@
         <v>7</v>
       </c>
       <c r="E121">
-        <f>LEN(B121)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -6399,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="E122">
-        <f>LEN(B122)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -6417,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="E123">
-        <f>LEN(B123)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -6435,7 +6420,7 @@
         <v>7</v>
       </c>
       <c r="E124">
-        <f>LEN(B124)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -6453,7 +6438,7 @@
         <v>7</v>
       </c>
       <c r="E125">
-        <f>LEN(B125)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -6471,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="E126">
-        <f>LEN(B126)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -6489,7 +6474,7 @@
         <v>7</v>
       </c>
       <c r="E127">
-        <f>LEN(B127)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -6507,7 +6492,7 @@
         <v>7</v>
       </c>
       <c r="E128">
-        <f>LEN(B128)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -6525,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="E129">
-        <f>LEN(B129)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -6543,7 +6528,7 @@
         <v>7</v>
       </c>
       <c r="E130">
-        <f>LEN(B130)</f>
+        <f t="shared" ref="E130:E193" si="2">LEN(B130)</f>
         <v>14</v>
       </c>
     </row>
@@ -6561,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="E131">
-        <f>LEN(B131)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -6579,7 +6564,7 @@
         <v>7</v>
       </c>
       <c r="E132">
-        <f>LEN(B132)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -6597,7 +6582,7 @@
         <v>7</v>
       </c>
       <c r="E133">
-        <f>LEN(B133)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -6615,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="E134">
-        <f>LEN(B134)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -6633,7 +6618,7 @@
         <v>7</v>
       </c>
       <c r="E135">
-        <f>LEN(B135)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -6651,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E136">
-        <f>LEN(B136)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -6669,7 +6654,7 @@
         <v>7</v>
       </c>
       <c r="E137">
-        <f>LEN(B137)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -6687,7 +6672,7 @@
         <v>7</v>
       </c>
       <c r="E138">
-        <f>LEN(B138)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -6705,7 +6690,7 @@
         <v>7</v>
       </c>
       <c r="E139">
-        <f>LEN(B139)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -6723,7 +6708,7 @@
         <v>7</v>
       </c>
       <c r="E140">
-        <f>LEN(B140)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -6741,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="E141">
-        <f>LEN(B141)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -6759,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="E142">
-        <f>LEN(B142)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -6777,7 +6762,7 @@
         <v>7</v>
       </c>
       <c r="E143">
-        <f>LEN(B143)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -6795,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="E144">
-        <f>LEN(B144)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -6813,7 +6798,7 @@
         <v>7</v>
       </c>
       <c r="E145">
-        <f>LEN(B145)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6831,7 +6816,7 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <f>LEN(B146)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6849,7 +6834,7 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <f>LEN(B147)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6867,7 +6852,7 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <f>LEN(B148)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6885,7 +6870,7 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <f>LEN(B149)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6903,7 +6888,7 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <f>LEN(B150)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6921,7 +6906,7 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <f>LEN(B151)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6939,7 +6924,7 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <f>LEN(B152)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6957,7 +6942,7 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <f>LEN(B153)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6975,7 +6960,7 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <f>LEN(B154)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6993,7 +6978,7 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <f>LEN(B155)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7011,7 +6996,7 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <f>LEN(B156)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7029,7 +7014,7 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <f>LEN(B157)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7047,7 +7032,7 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <f>LEN(B158)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7065,7 +7050,7 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <f>LEN(B159)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7083,7 +7068,7 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <f>LEN(B160)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7101,7 +7086,7 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <f>LEN(B161)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7119,7 +7104,7 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <f>LEN(B162)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7137,7 +7122,7 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <f>LEN(B163)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7155,7 +7140,7 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <f>LEN(B164)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7173,7 +7158,7 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <f>LEN(B165)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7191,7 +7176,7 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <f>LEN(B166)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7209,7 +7194,7 @@
         <v>8</v>
       </c>
       <c r="E167">
-        <f>LEN(B167)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7227,7 +7212,7 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <f>LEN(B168)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7245,7 +7230,7 @@
         <v>8</v>
       </c>
       <c r="E169">
-        <f>LEN(B169)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7263,7 +7248,7 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <f>LEN(B170)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7281,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <f>LEN(B171)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7299,7 +7284,7 @@
         <v>8</v>
       </c>
       <c r="E172">
-        <f>LEN(B172)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7317,7 +7302,7 @@
         <v>8</v>
       </c>
       <c r="E173">
-        <f>LEN(B173)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -7335,7 +7320,7 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <f>LEN(B174)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -7353,7 +7338,7 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <f>LEN(B175)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7371,7 +7356,7 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <f>LEN(B176)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7389,7 +7374,7 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <f>LEN(B177)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7407,7 +7392,7 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <f>LEN(B178)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7425,7 +7410,7 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <f>LEN(B179)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7443,7 +7428,7 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <f>LEN(B180)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7461,7 +7446,7 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <f>LEN(B181)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7479,7 +7464,7 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <f>LEN(B182)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7497,7 +7482,7 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <f>LEN(B183)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7515,7 +7500,7 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <f>LEN(B184)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7533,7 +7518,7 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <f>LEN(B185)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7551,7 +7536,7 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <f>LEN(B186)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7569,7 +7554,7 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <f>LEN(B187)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7587,7 +7572,7 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <f>LEN(B188)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7605,7 +7590,7 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <f>LEN(B189)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7623,7 +7608,7 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <f>LEN(B190)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7641,7 +7626,7 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <f>LEN(B191)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -7659,7 +7644,7 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <f>LEN(B192)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -7677,7 +7662,7 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <f>LEN(B193)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -7695,7 +7680,7 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <f>LEN(B194)</f>
+        <f t="shared" ref="E194:E257" si="3">LEN(B194)</f>
         <v>13</v>
       </c>
     </row>
@@ -7713,7 +7698,7 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <f>LEN(B195)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -7731,7 +7716,7 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <f>LEN(B196)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7749,7 +7734,7 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <f>LEN(B197)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7767,7 +7752,7 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <f>LEN(B198)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7785,7 +7770,7 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <f>LEN(B199)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7803,7 +7788,7 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <f>LEN(B200)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -7821,7 +7806,7 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <f>LEN(B201)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -7839,7 +7824,7 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <f>LEN(B202)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -7857,7 +7842,7 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <f>LEN(B203)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -7875,7 +7860,7 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <f>LEN(B204)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -7893,7 +7878,7 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <f>LEN(B205)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -7911,7 +7896,7 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <f>LEN(B206)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -7929,7 +7914,7 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <f>LEN(B207)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -7947,7 +7932,7 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <f>LEN(B208)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -7965,7 +7950,7 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <f>LEN(B209)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -7983,7 +7968,7 @@
         <v>9</v>
       </c>
       <c r="E210">
-        <f>LEN(B210)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -8001,7 +7986,7 @@
         <v>9</v>
       </c>
       <c r="E211">
-        <f>LEN(B211)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -8019,7 +8004,7 @@
         <v>9</v>
       </c>
       <c r="E212">
-        <f>LEN(B212)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -8037,7 +8022,7 @@
         <v>9</v>
       </c>
       <c r="E213">
-        <f>LEN(B213)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -8055,7 +8040,7 @@
         <v>9</v>
       </c>
       <c r="E214">
-        <f>LEN(B214)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -8073,7 +8058,7 @@
         <v>9</v>
       </c>
       <c r="E215">
-        <f>LEN(B215)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -8091,7 +8076,7 @@
         <v>9</v>
       </c>
       <c r="E216">
-        <f>LEN(B216)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8109,7 +8094,7 @@
         <v>9</v>
       </c>
       <c r="E217">
-        <f>LEN(B217)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8127,7 +8112,7 @@
         <v>9</v>
       </c>
       <c r="E218">
-        <f>LEN(B218)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8145,7 +8130,7 @@
         <v>9</v>
       </c>
       <c r="E219">
-        <f>LEN(B219)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8163,7 +8148,7 @@
         <v>9</v>
       </c>
       <c r="E220">
-        <f>LEN(B220)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8181,7 +8166,7 @@
         <v>9</v>
       </c>
       <c r="E221">
-        <f>LEN(B221)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8199,7 +8184,7 @@
         <v>9</v>
       </c>
       <c r="E222">
-        <f>LEN(B222)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8217,7 +8202,7 @@
         <v>9</v>
       </c>
       <c r="E223">
-        <f>LEN(B223)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8235,7 +8220,7 @@
         <v>9</v>
       </c>
       <c r="E224">
-        <f>LEN(B224)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8253,7 +8238,7 @@
         <v>9</v>
       </c>
       <c r="E225">
-        <f>LEN(B225)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -8271,7 +8256,7 @@
         <v>9</v>
       </c>
       <c r="E226">
-        <f>LEN(B226)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -8289,7 +8274,7 @@
         <v>9</v>
       </c>
       <c r="E227">
-        <f>LEN(B227)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -8307,7 +8292,7 @@
         <v>9</v>
       </c>
       <c r="E228">
-        <f>LEN(B228)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -8325,7 +8310,7 @@
         <v>9</v>
       </c>
       <c r="E229">
-        <f>LEN(B229)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -8343,7 +8328,7 @@
         <v>9</v>
       </c>
       <c r="E230">
-        <f>LEN(B230)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8361,7 +8346,7 @@
         <v>9</v>
       </c>
       <c r="E231">
-        <f>LEN(B231)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8379,7 +8364,7 @@
         <v>9</v>
       </c>
       <c r="E232">
-        <f>LEN(B232)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8397,7 +8382,7 @@
         <v>9</v>
       </c>
       <c r="E233">
-        <f>LEN(B233)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8415,7 +8400,7 @@
         <v>9</v>
       </c>
       <c r="E234">
-        <f>LEN(B234)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8433,7 +8418,7 @@
         <v>9</v>
       </c>
       <c r="E235">
-        <f>LEN(B235)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8451,7 +8436,7 @@
         <v>9</v>
       </c>
       <c r="E236">
-        <f>LEN(B236)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8469,7 +8454,7 @@
         <v>9</v>
       </c>
       <c r="E237">
-        <f>LEN(B237)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8487,7 +8472,7 @@
         <v>9</v>
       </c>
       <c r="E238">
-        <f>LEN(B238)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8505,7 +8490,7 @@
         <v>9</v>
       </c>
       <c r="E239">
-        <f>LEN(B239)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8523,7 +8508,7 @@
         <v>9</v>
       </c>
       <c r="E240">
-        <f>LEN(B240)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8541,7 +8526,7 @@
         <v>9</v>
       </c>
       <c r="E241">
-        <f>LEN(B241)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8559,7 +8544,7 @@
         <v>9</v>
       </c>
       <c r="E242">
-        <f>LEN(B242)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8577,7 +8562,7 @@
         <v>9</v>
       </c>
       <c r="E243">
-        <f>LEN(B243)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8595,7 +8580,7 @@
         <v>9</v>
       </c>
       <c r="E244">
-        <f>LEN(B244)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8613,7 +8598,7 @@
         <v>9</v>
       </c>
       <c r="E245">
-        <f>LEN(B245)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8631,7 +8616,7 @@
         <v>9</v>
       </c>
       <c r="E246">
-        <f>LEN(B246)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8649,7 +8634,7 @@
         <v>9</v>
       </c>
       <c r="E247">
-        <f>LEN(B247)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8667,7 +8652,7 @@
         <v>9</v>
       </c>
       <c r="E248">
-        <f>LEN(B248)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -8685,7 +8670,7 @@
         <v>9</v>
       </c>
       <c r="E249">
-        <f>LEN(B249)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -8703,7 +8688,7 @@
         <v>9</v>
       </c>
       <c r="E250">
-        <f>LEN(B250)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -8721,7 +8706,7 @@
         <v>9</v>
       </c>
       <c r="E251">
-        <f>LEN(B251)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -8739,7 +8724,7 @@
         <v>9</v>
       </c>
       <c r="E252">
-        <f>LEN(B252)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -8757,7 +8742,7 @@
         <v>9</v>
       </c>
       <c r="E253">
-        <f>LEN(B253)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -8775,7 +8760,7 @@
         <v>9</v>
       </c>
       <c r="E254">
-        <f>LEN(B254)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -8793,7 +8778,7 @@
         <v>9</v>
       </c>
       <c r="E255">
-        <f>LEN(B255)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -8811,7 +8796,7 @@
         <v>9</v>
       </c>
       <c r="E256">
-        <f>LEN(B256)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -8829,7 +8814,7 @@
         <v>9</v>
       </c>
       <c r="E257">
-        <f>LEN(B257)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -8847,7 +8832,7 @@
         <v>9</v>
       </c>
       <c r="E258">
-        <f>LEN(B258)</f>
+        <f t="shared" ref="E258:E321" si="4">LEN(B258)</f>
         <v>14</v>
       </c>
     </row>
@@ -8865,7 +8850,7 @@
         <v>9</v>
       </c>
       <c r="E259">
-        <f>LEN(B259)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -8883,7 +8868,7 @@
         <v>9</v>
       </c>
       <c r="E260">
-        <f>LEN(B260)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -8901,7 +8886,7 @@
         <v>9</v>
       </c>
       <c r="E261">
-        <f>LEN(B261)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -8919,7 +8904,7 @@
         <v>9</v>
       </c>
       <c r="E262">
-        <f>LEN(B262)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -8937,7 +8922,7 @@
         <v>9</v>
       </c>
       <c r="E263">
-        <f>LEN(B263)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -8955,7 +8940,7 @@
         <v>9</v>
       </c>
       <c r="E264">
-        <f>LEN(B264)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -8973,7 +8958,7 @@
         <v>9</v>
       </c>
       <c r="E265">
-        <f>LEN(B265)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -8991,7 +8976,7 @@
         <v>9</v>
       </c>
       <c r="E266">
-        <f>LEN(B266)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -9009,7 +8994,7 @@
         <v>9</v>
       </c>
       <c r="E267">
-        <f>LEN(B267)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -9027,7 +9012,7 @@
         <v>9</v>
       </c>
       <c r="E268">
-        <f>LEN(B268)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -9045,7 +9030,7 @@
         <v>9</v>
       </c>
       <c r="E269">
-        <f>LEN(B269)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -9063,7 +9048,7 @@
         <v>9</v>
       </c>
       <c r="E270">
-        <f>LEN(B270)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -9081,7 +9066,7 @@
         <v>9</v>
       </c>
       <c r="E271">
-        <f>LEN(B271)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -9099,7 +9084,7 @@
         <v>9</v>
       </c>
       <c r="E272">
-        <f>LEN(B272)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -9117,7 +9102,7 @@
         <v>9</v>
       </c>
       <c r="E273">
-        <f>LEN(B273)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -9135,7 +9120,7 @@
         <v>9</v>
       </c>
       <c r="E274">
-        <f>LEN(B274)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
@@ -9153,7 +9138,7 @@
         <v>9</v>
       </c>
       <c r="E275">
-        <f>LEN(B275)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9171,7 +9156,7 @@
         <v>9</v>
       </c>
       <c r="E276">
-        <f>LEN(B276)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9189,7 +9174,7 @@
         <v>9</v>
       </c>
       <c r="E277">
-        <f>LEN(B277)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9207,7 +9192,7 @@
         <v>9</v>
       </c>
       <c r="E278">
-        <f>LEN(B278)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9225,7 +9210,7 @@
         <v>9</v>
       </c>
       <c r="E279">
-        <f>LEN(B279)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9243,7 +9228,7 @@
         <v>9</v>
       </c>
       <c r="E280">
-        <f>LEN(B280)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9261,7 +9246,7 @@
         <v>9</v>
       </c>
       <c r="E281">
-        <f>LEN(B281)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9279,7 +9264,7 @@
         <v>9</v>
       </c>
       <c r="E282">
-        <f>LEN(B282)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -9297,7 +9282,7 @@
         <v>9</v>
       </c>
       <c r="E283">
-        <f>LEN(B283)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -9315,7 +9300,7 @@
         <v>10</v>
       </c>
       <c r="E284">
-        <f>LEN(B284)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -9333,7 +9318,7 @@
         <v>10</v>
       </c>
       <c r="E285">
-        <f>LEN(B285)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -9351,7 +9336,7 @@
         <v>10</v>
       </c>
       <c r="E286">
-        <f>LEN(B286)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -9369,7 +9354,7 @@
         <v>10</v>
       </c>
       <c r="E287">
-        <f>LEN(B287)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -9387,7 +9372,7 @@
         <v>10</v>
       </c>
       <c r="E288">
-        <f>LEN(B288)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -9405,7 +9390,7 @@
         <v>10</v>
       </c>
       <c r="E289">
-        <f>LEN(B289)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -9423,7 +9408,7 @@
         <v>10</v>
       </c>
       <c r="E290">
-        <f>LEN(B290)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -9441,7 +9426,7 @@
         <v>10</v>
       </c>
       <c r="E291">
-        <f>LEN(B291)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -9459,7 +9444,7 @@
         <v>10</v>
       </c>
       <c r="E292">
-        <f>LEN(B292)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9477,7 +9462,7 @@
         <v>10</v>
       </c>
       <c r="E293">
-        <f>LEN(B293)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9495,7 +9480,7 @@
         <v>10</v>
       </c>
       <c r="E294">
-        <f>LEN(B294)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9513,7 +9498,7 @@
         <v>10</v>
       </c>
       <c r="E295">
-        <f>LEN(B295)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9531,7 +9516,7 @@
         <v>10</v>
       </c>
       <c r="E296">
-        <f>LEN(B296)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9549,7 +9534,7 @@
         <v>10</v>
       </c>
       <c r="E297">
-        <f>LEN(B297)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9567,7 +9552,7 @@
         <v>10</v>
       </c>
       <c r="E298">
-        <f>LEN(B298)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9585,7 +9570,7 @@
         <v>10</v>
       </c>
       <c r="E299">
-        <f>LEN(B299)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9603,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="E300">
-        <f>LEN(B300)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9621,7 +9606,7 @@
         <v>10</v>
       </c>
       <c r="E301">
-        <f>LEN(B301)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9639,7 +9624,7 @@
         <v>10</v>
       </c>
       <c r="E302">
-        <f>LEN(B302)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -9657,7 +9642,7 @@
         <v>10</v>
       </c>
       <c r="E303">
-        <f>LEN(B303)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -9675,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="E304">
-        <f>LEN(B304)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -9693,7 +9678,7 @@
         <v>10</v>
       </c>
       <c r="E305">
-        <f>LEN(B305)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -9711,7 +9696,7 @@
         <v>10</v>
       </c>
       <c r="E306">
-        <f>LEN(B306)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -9729,7 +9714,7 @@
         <v>10</v>
       </c>
       <c r="E307">
-        <f>LEN(B307)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -9747,7 +9732,7 @@
         <v>10</v>
       </c>
       <c r="E308">
-        <f>LEN(B308)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -9765,7 +9750,7 @@
         <v>10</v>
       </c>
       <c r="E309">
-        <f>LEN(B309)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -9783,7 +9768,7 @@
         <v>10</v>
       </c>
       <c r="E310">
-        <f>LEN(B310)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9801,7 +9786,7 @@
         <v>10</v>
       </c>
       <c r="E311">
-        <f>LEN(B311)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9819,7 +9804,7 @@
         <v>10</v>
       </c>
       <c r="E312">
-        <f>LEN(B312)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9837,7 +9822,7 @@
         <v>10</v>
       </c>
       <c r="E313">
-        <f>LEN(B313)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9855,7 +9840,7 @@
         <v>10</v>
       </c>
       <c r="E314">
-        <f>LEN(B314)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9873,7 +9858,7 @@
         <v>10</v>
       </c>
       <c r="E315">
-        <f>LEN(B315)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9891,7 +9876,7 @@
         <v>10</v>
       </c>
       <c r="E316">
-        <f>LEN(B316)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9909,7 +9894,7 @@
         <v>10</v>
       </c>
       <c r="E317">
-        <f>LEN(B317)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9927,7 +9912,7 @@
         <v>10</v>
       </c>
       <c r="E318">
-        <f>LEN(B318)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9945,7 +9930,7 @@
         <v>10</v>
       </c>
       <c r="E319">
-        <f>LEN(B319)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -9963,7 +9948,7 @@
         <v>10</v>
       </c>
       <c r="E320">
-        <f>LEN(B320)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -9981,7 +9966,7 @@
         <v>10</v>
       </c>
       <c r="E321">
-        <f>LEN(B321)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -9999,7 +9984,7 @@
         <v>10</v>
       </c>
       <c r="E322">
-        <f>LEN(B322)</f>
+        <f t="shared" ref="E322:E385" si="5">LEN(B322)</f>
         <v>14</v>
       </c>
     </row>
@@ -10017,7 +10002,7 @@
         <v>10</v>
       </c>
       <c r="E323">
-        <f>LEN(B323)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -10035,7 +10020,7 @@
         <v>10</v>
       </c>
       <c r="E324">
-        <f>LEN(B324)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -10053,7 +10038,7 @@
         <v>10</v>
       </c>
       <c r="E325">
-        <f>LEN(B325)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -10071,7 +10056,7 @@
         <v>10</v>
       </c>
       <c r="E326">
-        <f>LEN(B326)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -10089,7 +10074,7 @@
         <v>10</v>
       </c>
       <c r="E327">
-        <f>LEN(B327)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10107,7 +10092,7 @@
         <v>10</v>
       </c>
       <c r="E328">
-        <f>LEN(B328)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10125,7 +10110,7 @@
         <v>10</v>
       </c>
       <c r="E329">
-        <f>LEN(B329)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10143,7 +10128,7 @@
         <v>10</v>
       </c>
       <c r="E330">
-        <f>LEN(B330)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10161,7 +10146,7 @@
         <v>10</v>
       </c>
       <c r="E331">
-        <f>LEN(B331)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10179,7 +10164,7 @@
         <v>10</v>
       </c>
       <c r="E332">
-        <f>LEN(B332)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -10197,7 +10182,7 @@
         <v>10</v>
       </c>
       <c r="E333">
-        <f>LEN(B333)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -10215,7 +10200,7 @@
         <v>10</v>
       </c>
       <c r="E334">
-        <f>LEN(B334)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -10233,7 +10218,7 @@
         <v>10</v>
       </c>
       <c r="E335">
-        <f>LEN(B335)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -10251,7 +10236,7 @@
         <v>11</v>
       </c>
       <c r="E336">
-        <f>LEN(B336)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -10269,7 +10254,7 @@
         <v>11</v>
       </c>
       <c r="E337">
-        <f>LEN(B337)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -10287,7 +10272,7 @@
         <v>11</v>
       </c>
       <c r="E338">
-        <f>LEN(B338)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -10305,7 +10290,7 @@
         <v>11</v>
       </c>
       <c r="E339">
-        <f>LEN(B339)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10323,7 +10308,7 @@
         <v>11</v>
       </c>
       <c r="E340">
-        <f>LEN(B340)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10341,7 +10326,7 @@
         <v>11</v>
       </c>
       <c r="E341">
-        <f>LEN(B341)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10359,7 +10344,7 @@
         <v>11</v>
       </c>
       <c r="E342">
-        <f>LEN(B342)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10377,7 +10362,7 @@
         <v>11</v>
       </c>
       <c r="E343">
-        <f>LEN(B343)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10395,7 +10380,7 @@
         <v>11</v>
       </c>
       <c r="E344">
-        <f>LEN(B344)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10413,7 +10398,7 @@
         <v>11</v>
       </c>
       <c r="E345">
-        <f>LEN(B345)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10431,7 +10416,7 @@
         <v>11</v>
       </c>
       <c r="E346">
-        <f>LEN(B346)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10449,7 +10434,7 @@
         <v>11</v>
       </c>
       <c r="E347">
-        <f>LEN(B347)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10467,7 +10452,7 @@
         <v>11</v>
       </c>
       <c r="E348">
-        <f>LEN(B348)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10485,7 +10470,7 @@
         <v>11</v>
       </c>
       <c r="E349">
-        <f>LEN(B349)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10503,7 +10488,7 @@
         <v>11</v>
       </c>
       <c r="E350">
-        <f>LEN(B350)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10521,7 +10506,7 @@
         <v>11</v>
       </c>
       <c r="E351">
-        <f>LEN(B351)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -10539,7 +10524,7 @@
         <v>11</v>
       </c>
       <c r="E352">
-        <f>LEN(B352)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -10557,7 +10542,7 @@
         <v>11</v>
       </c>
       <c r="E353">
-        <f>LEN(B353)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -10575,7 +10560,7 @@
         <v>11</v>
       </c>
       <c r="E354">
-        <f>LEN(B354)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -10593,7 +10578,7 @@
         <v>11</v>
       </c>
       <c r="E355">
-        <f>LEN(B355)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -10611,7 +10596,7 @@
         <v>11</v>
       </c>
       <c r="E356">
-        <f>LEN(B356)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -10629,7 +10614,7 @@
         <v>11</v>
       </c>
       <c r="E357">
-        <f>LEN(B357)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -10647,7 +10632,7 @@
         <v>11</v>
       </c>
       <c r="E358">
-        <f>LEN(B358)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -10665,7 +10650,7 @@
         <v>11</v>
       </c>
       <c r="E359">
-        <f>LEN(B359)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10683,7 +10668,7 @@
         <v>11</v>
       </c>
       <c r="E360">
-        <f>LEN(B360)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10701,7 +10686,7 @@
         <v>11</v>
       </c>
       <c r="E361">
-        <f>LEN(B361)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10719,7 +10704,7 @@
         <v>11</v>
       </c>
       <c r="E362">
-        <f>LEN(B362)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10737,7 +10722,7 @@
         <v>11</v>
       </c>
       <c r="E363">
-        <f>LEN(B363)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10755,7 +10740,7 @@
         <v>11</v>
       </c>
       <c r="E364">
-        <f>LEN(B364)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10773,7 +10758,7 @@
         <v>11</v>
       </c>
       <c r="E365">
-        <f>LEN(B365)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10791,7 +10776,7 @@
         <v>11</v>
       </c>
       <c r="E366">
-        <f>LEN(B366)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10809,7 +10794,7 @@
         <v>11</v>
       </c>
       <c r="E367">
-        <f>LEN(B367)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -10827,7 +10812,7 @@
         <v>11</v>
       </c>
       <c r="E368">
-        <f>LEN(B368)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -10845,7 +10830,7 @@
         <v>11</v>
       </c>
       <c r="E369">
-        <f>LEN(B369)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -10863,7 +10848,7 @@
         <v>11</v>
       </c>
       <c r="E370">
-        <f>LEN(B370)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -10881,7 +10866,7 @@
         <v>11</v>
       </c>
       <c r="E371">
-        <f>LEN(B371)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -10899,7 +10884,7 @@
         <v>11</v>
       </c>
       <c r="E372">
-        <f>LEN(B372)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10917,7 +10902,7 @@
         <v>11</v>
       </c>
       <c r="E373">
-        <f>LEN(B373)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10935,7 +10920,7 @@
         <v>11</v>
       </c>
       <c r="E374">
-        <f>LEN(B374)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10953,7 +10938,7 @@
         <v>11</v>
       </c>
       <c r="E375">
-        <f>LEN(B375)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10971,7 +10956,7 @@
         <v>11</v>
       </c>
       <c r="E376">
-        <f>LEN(B376)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -10989,7 +10974,7 @@
         <v>11</v>
       </c>
       <c r="E377">
-        <f>LEN(B377)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -11007,7 +10992,7 @@
         <v>11</v>
       </c>
       <c r="E378">
-        <f>LEN(B378)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -11025,7 +11010,7 @@
         <v>12</v>
       </c>
       <c r="E379">
-        <f>LEN(B379)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -11043,7 +11028,7 @@
         <v>12</v>
       </c>
       <c r="E380">
-        <f>LEN(B380)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -11061,7 +11046,7 @@
         <v>12</v>
       </c>
       <c r="E381">
-        <f>LEN(B381)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -11079,7 +11064,7 @@
         <v>12</v>
       </c>
       <c r="E382">
-        <f>LEN(B382)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -11097,7 +11082,7 @@
         <v>12</v>
       </c>
       <c r="E383">
-        <f>LEN(B383)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -11115,7 +11100,7 @@
         <v>12</v>
       </c>
       <c r="E384">
-        <f>LEN(B384)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -11133,7 +11118,7 @@
         <v>12</v>
       </c>
       <c r="E385">
-        <f>LEN(B385)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -11151,7 +11136,7 @@
         <v>12</v>
       </c>
       <c r="E386">
-        <f>LEN(B386)</f>
+        <f t="shared" ref="E386:E449" si="6">LEN(B386)</f>
         <v>11</v>
       </c>
     </row>
@@ -11169,7 +11154,7 @@
         <v>12</v>
       </c>
       <c r="E387">
-        <f>LEN(B387)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11187,7 +11172,7 @@
         <v>12</v>
       </c>
       <c r="E388">
-        <f>LEN(B388)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11205,7 +11190,7 @@
         <v>12</v>
       </c>
       <c r="E389">
-        <f>LEN(B389)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11223,7 +11208,7 @@
         <v>12</v>
       </c>
       <c r="E390">
-        <f>LEN(B390)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11241,7 +11226,7 @@
         <v>12</v>
       </c>
       <c r="E391">
-        <f>LEN(B391)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11259,7 +11244,7 @@
         <v>12</v>
       </c>
       <c r="E392">
-        <f>LEN(B392)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11277,7 +11262,7 @@
         <v>12</v>
       </c>
       <c r="E393">
-        <f>LEN(B393)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11295,7 +11280,7 @@
         <v>12</v>
       </c>
       <c r="E394">
-        <f>LEN(B394)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11313,7 +11298,7 @@
         <v>12</v>
       </c>
       <c r="E395">
-        <f>LEN(B395)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11331,7 +11316,7 @@
         <v>12</v>
       </c>
       <c r="E396">
-        <f>LEN(B396)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11349,7 +11334,7 @@
         <v>12</v>
       </c>
       <c r="E397">
-        <f>LEN(B397)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11367,7 +11352,7 @@
         <v>12</v>
       </c>
       <c r="E398">
-        <f>LEN(B398)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11385,7 +11370,7 @@
         <v>12</v>
       </c>
       <c r="E399">
-        <f>LEN(B399)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -11403,7 +11388,7 @@
         <v>12</v>
       </c>
       <c r="E400">
-        <f>LEN(B400)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -11421,7 +11406,7 @@
         <v>12</v>
       </c>
       <c r="E401">
-        <f>LEN(B401)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -11439,7 +11424,7 @@
         <v>12</v>
       </c>
       <c r="E402">
-        <f>LEN(B402)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -11457,7 +11442,7 @@
         <v>12</v>
       </c>
       <c r="E403">
-        <f>LEN(B403)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -11475,7 +11460,7 @@
         <v>12</v>
       </c>
       <c r="E404">
-        <f>LEN(B404)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -11493,7 +11478,7 @@
         <v>12</v>
       </c>
       <c r="E405">
-        <f>LEN(B405)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -11511,7 +11496,7 @@
         <v>12</v>
       </c>
       <c r="E406">
-        <f>LEN(B406)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -11529,7 +11514,7 @@
         <v>12</v>
       </c>
       <c r="E407">
-        <f>LEN(B407)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -11547,7 +11532,7 @@
         <v>12</v>
       </c>
       <c r="E408">
-        <f>LEN(B408)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11565,7 +11550,7 @@
         <v>12</v>
       </c>
       <c r="E409">
-        <f>LEN(B409)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11583,7 +11568,7 @@
         <v>12</v>
       </c>
       <c r="E410">
-        <f>LEN(B410)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11601,7 +11586,7 @@
         <v>12</v>
       </c>
       <c r="E411">
-        <f>LEN(B411)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11619,7 +11604,7 @@
         <v>12</v>
       </c>
       <c r="E412">
-        <f>LEN(B412)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11637,7 +11622,7 @@
         <v>12</v>
       </c>
       <c r="E413">
-        <f>LEN(B413)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11655,7 +11640,7 @@
         <v>12</v>
       </c>
       <c r="E414">
-        <f>LEN(B414)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11673,7 +11658,7 @@
         <v>12</v>
       </c>
       <c r="E415">
-        <f>LEN(B415)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11691,7 +11676,7 @@
         <v>12</v>
       </c>
       <c r="E416">
-        <f>LEN(B416)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -11709,7 +11694,7 @@
         <v>12</v>
       </c>
       <c r="E417">
-        <f>LEN(B417)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -11727,7 +11712,7 @@
         <v>12</v>
       </c>
       <c r="E418">
-        <f>LEN(B418)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -11745,7 +11730,7 @@
         <v>13</v>
       </c>
       <c r="E419">
-        <f>LEN(B419)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -11763,7 +11748,7 @@
         <v>13</v>
       </c>
       <c r="E420">
-        <f>LEN(B420)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11781,7 +11766,7 @@
         <v>13</v>
       </c>
       <c r="E421">
-        <f>LEN(B421)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11799,7 +11784,7 @@
         <v>13</v>
       </c>
       <c r="E422">
-        <f>LEN(B422)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11817,7 +11802,7 @@
         <v>13</v>
       </c>
       <c r="E423">
-        <f>LEN(B423)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11835,7 +11820,7 @@
         <v>13</v>
       </c>
       <c r="E424">
-        <f>LEN(B424)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11853,7 +11838,7 @@
         <v>13</v>
       </c>
       <c r="E425">
-        <f>LEN(B425)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11871,7 +11856,7 @@
         <v>13</v>
       </c>
       <c r="E426">
-        <f>LEN(B426)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -11889,7 +11874,7 @@
         <v>13</v>
       </c>
       <c r="E427">
-        <f>LEN(B427)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11907,7 +11892,7 @@
         <v>13</v>
       </c>
       <c r="E428">
-        <f>LEN(B428)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11925,7 +11910,7 @@
         <v>13</v>
       </c>
       <c r="E429">
-        <f>LEN(B429)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11943,7 +11928,7 @@
         <v>13</v>
       </c>
       <c r="E430">
-        <f>LEN(B430)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11961,7 +11946,7 @@
         <v>13</v>
       </c>
       <c r="E431">
-        <f>LEN(B431)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11979,7 +11964,7 @@
         <v>13</v>
       </c>
       <c r="E432">
-        <f>LEN(B432)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -11997,7 +11982,7 @@
         <v>13</v>
       </c>
       <c r="E433">
-        <f>LEN(B433)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -12015,7 +12000,7 @@
         <v>13</v>
       </c>
       <c r="E434">
-        <f>LEN(B434)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -12033,7 +12018,7 @@
         <v>13</v>
       </c>
       <c r="E435">
-        <f>LEN(B435)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12051,7 +12036,7 @@
         <v>13</v>
       </c>
       <c r="E436">
-        <f>LEN(B436)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12069,7 +12054,7 @@
         <v>13</v>
       </c>
       <c r="E437">
-        <f>LEN(B437)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12087,7 +12072,7 @@
         <v>13</v>
       </c>
       <c r="E438">
-        <f>LEN(B438)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12105,7 +12090,7 @@
         <v>13</v>
       </c>
       <c r="E439">
-        <f>LEN(B439)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12123,7 +12108,7 @@
         <v>13</v>
       </c>
       <c r="E440">
-        <f>LEN(B440)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12141,7 +12126,7 @@
         <v>13</v>
       </c>
       <c r="E441">
-        <f>LEN(B441)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12159,7 +12144,7 @@
         <v>13</v>
       </c>
       <c r="E442">
-        <f>LEN(B442)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -12177,7 +12162,7 @@
         <v>13</v>
       </c>
       <c r="E443">
-        <f>LEN(B443)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -12195,7 +12180,7 @@
         <v>13</v>
       </c>
       <c r="E444">
-        <f>LEN(B444)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -12213,7 +12198,7 @@
         <v>13</v>
       </c>
       <c r="E445">
-        <f>LEN(B445)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -12231,7 +12216,7 @@
         <v>13</v>
       </c>
       <c r="E446">
-        <f>LEN(B446)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -12249,7 +12234,7 @@
         <v>13</v>
       </c>
       <c r="E447">
-        <f>LEN(B447)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -12267,7 +12252,7 @@
         <v>13</v>
       </c>
       <c r="E448">
-        <f>LEN(B448)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
     </row>
@@ -12285,7 +12270,7 @@
         <v>14</v>
       </c>
       <c r="E449">
-        <f>LEN(B449)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -12303,7 +12288,7 @@
         <v>14</v>
       </c>
       <c r="E450">
-        <f>LEN(B450)</f>
+        <f t="shared" ref="E450:E513" si="7">LEN(B450)</f>
         <v>9</v>
       </c>
     </row>
@@ -12321,7 +12306,7 @@
         <v>14</v>
       </c>
       <c r="E451">
-        <f>LEN(B451)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -12339,7 +12324,7 @@
         <v>14</v>
       </c>
       <c r="E452">
-        <f>LEN(B452)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -12357,7 +12342,7 @@
         <v>14</v>
       </c>
       <c r="E453">
-        <f>LEN(B453)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -12375,7 +12360,7 @@
         <v>14</v>
       </c>
       <c r="E454">
-        <f>LEN(B454)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -12393,7 +12378,7 @@
         <v>14</v>
       </c>
       <c r="E455">
-        <f>LEN(B455)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -12411,7 +12396,7 @@
         <v>14</v>
       </c>
       <c r="E456">
-        <f>LEN(B456)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -12429,7 +12414,7 @@
         <v>14</v>
       </c>
       <c r="E457">
-        <f>LEN(B457)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -12447,7 +12432,7 @@
         <v>14</v>
       </c>
       <c r="E458">
-        <f>LEN(B458)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -12465,7 +12450,7 @@
         <v>14</v>
       </c>
       <c r="E459">
-        <f>LEN(B459)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -12483,7 +12468,7 @@
         <v>14</v>
       </c>
       <c r="E460">
-        <f>LEN(B460)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -12501,7 +12486,7 @@
         <v>14</v>
       </c>
       <c r="E461">
-        <f>LEN(B461)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -12519,7 +12504,7 @@
         <v>14</v>
       </c>
       <c r="E462">
-        <f>LEN(B462)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -12537,7 +12522,7 @@
         <v>14</v>
       </c>
       <c r="E463">
-        <f>LEN(B463)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -12555,7 +12540,7 @@
         <v>14</v>
       </c>
       <c r="E464">
-        <f>LEN(B464)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -12573,7 +12558,7 @@
         <v>14</v>
       </c>
       <c r="E465">
-        <f>LEN(B465)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -12591,7 +12576,7 @@
         <v>14</v>
       </c>
       <c r="E466">
-        <f>LEN(B466)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
@@ -12609,7 +12594,7 @@
         <v>14</v>
       </c>
       <c r="E467">
-        <f>LEN(B467)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
@@ -12627,7 +12612,7 @@
         <v>14</v>
       </c>
       <c r="E468">
-        <f>LEN(B468)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -12645,7 +12630,7 @@
         <v>14</v>
       </c>
       <c r="E469">
-        <f>LEN(B469)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
     </row>
@@ -12663,7 +12648,7 @@
         <v>14</v>
       </c>
       <c r="E470">
-        <f>LEN(B470)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
     </row>
@@ -12681,7 +12666,7 @@
         <v>15</v>
       </c>
       <c r="E471">
-        <f>LEN(B471)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -12699,7 +12684,7 @@
         <v>15</v>
       </c>
       <c r="E472">
-        <f>LEN(B472)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -12717,7 +12702,7 @@
         <v>15</v>
       </c>
       <c r="E473">
-        <f>LEN(B473)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -12735,7 +12720,7 @@
         <v>15</v>
       </c>
       <c r="E474">
-        <f>LEN(B474)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -12753,7 +12738,7 @@
         <v>15</v>
       </c>
       <c r="E475">
-        <f>LEN(B475)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -12771,7 +12756,7 @@
         <v>15</v>
       </c>
       <c r="E476">
-        <f>LEN(B476)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -12789,7 +12774,7 @@
         <v>15</v>
       </c>
       <c r="E477">
-        <f>LEN(B477)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -12807,7 +12792,7 @@
         <v>15</v>
       </c>
       <c r="E478">
-        <f>LEN(B478)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -12825,7 +12810,7 @@
         <v>15</v>
       </c>
       <c r="E479">
-        <f>LEN(B479)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -12843,7 +12828,7 @@
         <v>15</v>
       </c>
       <c r="E480">
-        <f>LEN(B480)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -12861,7 +12846,7 @@
         <v>15</v>
       </c>
       <c r="E481">
-        <f>LEN(B481)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -12879,7 +12864,7 @@
         <v>15</v>
       </c>
       <c r="E482">
-        <f>LEN(B482)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -12897,7 +12882,7 @@
         <v>15</v>
       </c>
       <c r="E483">
-        <f>LEN(B483)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -12915,7 +12900,7 @@
         <v>15</v>
       </c>
       <c r="E484">
-        <f>LEN(B484)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
@@ -12933,7 +12918,7 @@
         <v>15</v>
       </c>
       <c r="E485">
-        <f>LEN(B485)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -12951,7 +12936,7 @@
         <v>15</v>
       </c>
       <c r="E486">
-        <f>LEN(B486)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -12969,7 +12954,7 @@
         <v>15</v>
       </c>
       <c r="E487">
-        <f>LEN(B487)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -12987,7 +12972,7 @@
         <v>15</v>
       </c>
       <c r="E488">
-        <f>LEN(B488)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -13005,7 +12990,7 @@
         <v>15</v>
       </c>
       <c r="E489">
-        <f>LEN(B489)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -13023,7 +13008,7 @@
         <v>15</v>
       </c>
       <c r="E490">
-        <f>LEN(B490)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
     </row>
@@ -13041,7 +13026,7 @@
         <v>16</v>
       </c>
       <c r="E491">
-        <f>LEN(B491)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -13059,7 +13044,7 @@
         <v>16</v>
       </c>
       <c r="E492">
-        <f>LEN(B492)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -13077,7 +13062,7 @@
         <v>16</v>
       </c>
       <c r="E493">
-        <f>LEN(B493)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -13095,7 +13080,7 @@
         <v>16</v>
       </c>
       <c r="E494">
-        <f>LEN(B494)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -13113,7 +13098,7 @@
         <v>16</v>
       </c>
       <c r="E495">
-        <f>LEN(B495)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -13131,7 +13116,7 @@
         <v>16</v>
       </c>
       <c r="E496">
-        <f>LEN(B496)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -13149,7 +13134,7 @@
         <v>16</v>
       </c>
       <c r="E497">
-        <f>LEN(B497)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -13167,7 +13152,7 @@
         <v>16</v>
       </c>
       <c r="E498">
-        <f>LEN(B498)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -13185,7 +13170,7 @@
         <v>16</v>
       </c>
       <c r="E499">
-        <f>LEN(B499)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -13203,7 +13188,7 @@
         <v>16</v>
       </c>
       <c r="E500">
-        <f>LEN(B500)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -13221,7 +13206,7 @@
         <v>16</v>
       </c>
       <c r="E501">
-        <f>LEN(B501)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -13239,7 +13224,7 @@
         <v>16</v>
       </c>
       <c r="E502">
-        <f>LEN(B502)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
     </row>
@@ -13257,7 +13242,7 @@
         <v>16</v>
       </c>
       <c r="E503">
-        <f>LEN(B503)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
     </row>
@@ -13275,7 +13260,7 @@
         <v>16</v>
       </c>
       <c r="E504">
-        <f>LEN(B504)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
     </row>
@@ -13293,7 +13278,7 @@
         <v>16</v>
       </c>
       <c r="E505">
-        <f>LEN(B505)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
@@ -13311,7 +13296,7 @@
         <v>17</v>
       </c>
       <c r="E506">
-        <f>LEN(B506)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -13329,7 +13314,7 @@
         <v>17</v>
       </c>
       <c r="E507">
-        <f>LEN(B507)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -13347,7 +13332,7 @@
         <v>17</v>
       </c>
       <c r="E508">
-        <f>LEN(B508)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -13365,7 +13350,7 @@
         <v>17</v>
       </c>
       <c r="E509">
-        <f>LEN(B509)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -13383,7 +13368,7 @@
         <v>17</v>
       </c>
       <c r="E510">
-        <f>LEN(B510)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -13401,7 +13386,7 @@
         <v>17</v>
       </c>
       <c r="E511">
-        <f>LEN(B511)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -13419,7 +13404,7 @@
         <v>17</v>
       </c>
       <c r="E512">
-        <f>LEN(B512)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -13437,7 +13422,7 @@
         <v>17</v>
       </c>
       <c r="E513">
-        <f>LEN(B513)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -13455,7 +13440,7 @@
         <v>17</v>
       </c>
       <c r="E514">
-        <f>LEN(B514)</f>
+        <f t="shared" ref="E514:E561" si="8">LEN(B514)</f>
         <v>13</v>
       </c>
     </row>
@@ -13473,7 +13458,7 @@
         <v>17</v>
       </c>
       <c r="E515">
-        <f>LEN(B515)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -13491,7 +13476,7 @@
         <v>17</v>
       </c>
       <c r="E516">
-        <f>LEN(B516)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13509,7 +13494,7 @@
         <v>17</v>
       </c>
       <c r="E517">
-        <f>LEN(B517)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13527,7 +13512,7 @@
         <v>17</v>
       </c>
       <c r="E518">
-        <f>LEN(B518)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13545,7 +13530,7 @@
         <v>17</v>
       </c>
       <c r="E519">
-        <f>LEN(B519)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13563,7 +13548,7 @@
         <v>17</v>
       </c>
       <c r="E520">
-        <f>LEN(B520)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -13581,7 +13566,7 @@
         <v>17</v>
       </c>
       <c r="E521">
-        <f>LEN(B521)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -13599,7 +13584,7 @@
         <v>17</v>
       </c>
       <c r="E522">
-        <f>LEN(B522)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -13617,7 +13602,7 @@
         <v>17</v>
       </c>
       <c r="E523">
-        <f>LEN(B523)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -13635,7 +13620,7 @@
         <v>17</v>
       </c>
       <c r="E524">
-        <f>LEN(B524)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -13653,7 +13638,7 @@
         <v>17</v>
       </c>
       <c r="E525">
-        <f>LEN(B525)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
@@ -13671,7 +13656,7 @@
         <v>17</v>
       </c>
       <c r="E526">
-        <f>LEN(B526)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -13689,7 +13674,7 @@
         <v>17</v>
       </c>
       <c r="E527">
-        <f>LEN(B527)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -13707,7 +13692,7 @@
         <v>17</v>
       </c>
       <c r="E528">
-        <f>LEN(B528)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -13725,7 +13710,7 @@
         <v>17</v>
       </c>
       <c r="E529">
-        <f>LEN(B529)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -13743,7 +13728,7 @@
         <v>17</v>
       </c>
       <c r="E530">
-        <f>LEN(B530)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -13761,7 +13746,7 @@
         <v>18</v>
       </c>
       <c r="E531">
-        <f>LEN(B531)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -13779,7 +13764,7 @@
         <v>18</v>
       </c>
       <c r="E532">
-        <f>LEN(B532)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -13797,7 +13782,7 @@
         <v>18</v>
       </c>
       <c r="E533">
-        <f>LEN(B533)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -13815,7 +13800,7 @@
         <v>18</v>
       </c>
       <c r="E534">
-        <f>LEN(B534)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13833,7 +13818,7 @@
         <v>18</v>
       </c>
       <c r="E535">
-        <f>LEN(B535)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13851,7 +13836,7 @@
         <v>18</v>
       </c>
       <c r="E536">
-        <f>LEN(B536)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -13869,7 +13854,7 @@
         <v>18</v>
       </c>
       <c r="E537">
-        <f>LEN(B537)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -13887,7 +13872,7 @@
         <v>18</v>
       </c>
       <c r="E538">
-        <f>LEN(B538)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -13905,7 +13890,7 @@
         <v>18</v>
       </c>
       <c r="E539">
-        <f>LEN(B539)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -13923,7 +13908,7 @@
         <v>19</v>
       </c>
       <c r="E540">
-        <f>LEN(B540)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13941,7 +13926,7 @@
         <v>19</v>
       </c>
       <c r="E541">
-        <f>LEN(B541)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -13959,7 +13944,7 @@
         <v>20</v>
       </c>
       <c r="E542">
-        <f>LEN(B542)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -13977,7 +13962,7 @@
         <v>20</v>
       </c>
       <c r="E543">
-        <f>LEN(B543)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -13995,7 +13980,7 @@
         <v>20</v>
       </c>
       <c r="E544">
-        <f>LEN(B544)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -14013,7 +13998,7 @@
         <v>20</v>
       </c>
       <c r="E545">
-        <f>LEN(B545)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -14031,7 +14016,7 @@
         <v>20</v>
       </c>
       <c r="E546">
-        <f>LEN(B546)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -14049,7 +14034,7 @@
         <v>20</v>
       </c>
       <c r="E547">
-        <f>LEN(B547)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -14067,7 +14052,7 @@
         <v>21</v>
       </c>
       <c r="E548">
-        <f>LEN(B548)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -14085,7 +14070,7 @@
         <v>21</v>
       </c>
       <c r="E549">
-        <f>LEN(B549)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -14103,7 +14088,7 @@
         <v>21</v>
       </c>
       <c r="E550">
-        <f>LEN(B550)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
@@ -14121,7 +14106,7 @@
         <v>21</v>
       </c>
       <c r="E551">
-        <f>LEN(B551)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -14139,7 +14124,7 @@
         <v>22</v>
       </c>
       <c r="E552">
-        <f>LEN(B552)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -14157,7 +14142,7 @@
         <v>22</v>
       </c>
       <c r="E553">
-        <f>LEN(B553)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -14175,7 +14160,7 @@
         <v>23</v>
       </c>
       <c r="E554">
-        <f>LEN(B554)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -14193,7 +14178,7 @@
         <v>23</v>
       </c>
       <c r="E555">
-        <f>LEN(B555)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -14211,7 +14196,7 @@
         <v>23</v>
       </c>
       <c r="E556">
-        <f>LEN(B556)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -14229,7 +14214,7 @@
         <v>23</v>
       </c>
       <c r="E557">
-        <f>LEN(B557)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
@@ -14247,7 +14232,7 @@
         <v>24</v>
       </c>
       <c r="E558">
-        <f>LEN(B558)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -14265,7 +14250,7 @@
         <v>25</v>
       </c>
       <c r="E559">
-        <f>LEN(B559)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -14283,7 +14268,7 @@
         <v>25</v>
       </c>
       <c r="E560">
-        <f>LEN(B560)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -14301,7 +14286,7 @@
         <v>26</v>
       </c>
       <c r="E561">
-        <f>LEN(B561)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
